--- a/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9951584137621468</v>
+        <v>-1.100208785419897</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.627759932913644</v>
+        <v>1.722989019570012</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.019433693176998</v>
+        <v>0.9603968467074382</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.185728306750219</v>
+        <v>2.25452498960464</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2763654094349321</v>
+        <v>-0.3088612961426027</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5519681090117375</v>
+        <v>0.5929241487897637</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.375257735385733</v>
+        <v>0.3880561908303332</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5644368052524302</v>
+        <v>0.6298194906401413</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.586427058062681</v>
+        <v>2.754270141672449</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.688338608013469</v>
+        <v>5.703882543132488</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.686947220609912</v>
+        <v>4.478616936624203</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.082473404520742</v>
+        <v>5.85249966869325</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.167614196690768</v>
+        <v>1.272503510876039</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.636102635081863</v>
+        <v>5.190437843282908</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.193422758948639</v>
+        <v>6.185813281285105</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.658860112794772</v>
+        <v>3.49810653474331</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3914727977086227</v>
+        <v>0.1820322542239372</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.282107617344082</v>
+        <v>2.216462586005979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.107475838147369</v>
+        <v>1.141938095796357</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.884033850697551</v>
+        <v>1.819390879690516</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07710739633667736</v>
+        <v>0.04473521659137561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6993995107756739</v>
+        <v>0.6873700316262861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4842761661768241</v>
+        <v>0.5245397944248447</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7599586805361646</v>
+        <v>0.7348583847338614</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.940398058581091</v>
+        <v>4.024219882643849</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.759705451547573</v>
+        <v>6.003270871499798</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.936436293914844</v>
+        <v>4.033426173659244</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.40642940396315</v>
+        <v>4.345721428569494</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.990176020076807</v>
+        <v>2.113987414501446</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.350485653258398</v>
+        <v>3.467034667890295</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.970042590679435</v>
+        <v>4.171289372332565</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.610456903678366</v>
+        <v>3.713609950473249</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.043117653888077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.48471744738878</v>
+        <v>2.484717447388781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.416409047548184</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.559490470368717</v>
+        <v>1.37830474545301</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.010813006831158</v>
+        <v>1.027831599143346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3978406495383766</v>
+        <v>0.4192198184673561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.088098254915207</v>
+        <v>1.055959218986721</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.412395462002624</v>
+        <v>0.3327139673288138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2742231495948984</v>
+        <v>0.2589101957228011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08230832647674347</v>
+        <v>0.1236265391603897</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3753357092735196</v>
+        <v>0.3549864692359748</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.705042481584756</v>
+        <v>5.618209528421325</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.705415978982432</v>
+        <v>4.959326926059334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.843338555255358</v>
+        <v>3.746634391040938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.947582776666291</v>
+        <v>3.959354660849811</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.268223163629812</v>
+        <v>3.35636409567906</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.262991111025293</v>
+        <v>4.073721272069917</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.2154785836055</v>
+        <v>3.477867613631989</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.75242209495642</v>
+        <v>4.105275456157929</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.733471417198063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.58016780883129</v>
+        <v>4.580167808831289</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6701562826801096</v>
@@ -949,7 +949,7 @@
         <v>3.182112298114737</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>2.436397132895391</v>
+        <v>2.43639713289539</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3498900221872558</v>
+        <v>0.4637297966350474</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.181796662837557</v>
+        <v>2.358405073400835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.472487528591139</v>
+        <v>1.387253494710043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.117635708277195</v>
+        <v>3.200496889218464</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07138786638577245</v>
+        <v>0.08946544379236986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6557787629990797</v>
+        <v>0.7097167149856699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8424240088305569</v>
+        <v>0.8137289385154108</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.136119863875435</v>
+        <v>1.26392427534518</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.222759430438733</v>
+        <v>4.20036791874707</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.0786753799264</v>
+        <v>6.095854985757482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.223380930761109</v>
+        <v>4.229523472294208</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.016253242224155</v>
+        <v>5.96696186178889</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.583536081819016</v>
+        <v>1.533988197541545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.071718541832856</v>
+        <v>4.063359879971783</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8.895898606439053</v>
+        <v>8.77168754243913</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.609823774647788</v>
+        <v>4.485857156677746</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.205012737915008</v>
+        <v>1.182000445658334</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.755392677185494</v>
+        <v>2.806622302268556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.655255368729342</v>
+        <v>1.7176851847306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.797889550351478</v>
+        <v>2.816848188261734</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3560202892551412</v>
+        <v>0.3444246804608952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.078283595456926</v>
+        <v>1.129970385559587</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.010549938524568</v>
+        <v>1.059617872568344</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.252978361552866</v>
+        <v>1.263727917557591</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.152474363600433</v>
+        <v>3.161185039422092</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.642842365267972</v>
+        <v>4.764566452161642</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.221190031516272</v>
+        <v>3.286010821110382</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.299388167291092</v>
+        <v>4.367178005459128</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.262021528849009</v>
+        <v>1.29663173860091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.705302128361804</v>
+        <v>2.860094773047459</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.962419414622514</v>
+        <v>3.057645433197754</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.784830661984186</v>
+        <v>2.891303579045077</v>
       </c>
     </row>
     <row r="19">
